--- a/2023/usa_mls_2023.xlsx
+++ b/2023/usa_mls_2023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V433"/>
+  <dimension ref="A1:V435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15937,71 +15937,71 @@
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Los Angeles Galaxy</t>
         </is>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
       <c r="J169" t="n">
-        <v>1.58</v>
+        <v>1.9</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
-          <t>14/05/2023 01:43</t>
+          <t>15/05/2023 03:42</t>
         </is>
       </c>
       <c r="L169" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="M169" t="inlineStr">
         <is>
-          <t>18/05/2023 01:29</t>
+          <t>18/05/2023 01:28</t>
         </is>
       </c>
       <c r="N169" t="n">
-        <v>4.38</v>
+        <v>3.85</v>
       </c>
       <c r="O169" t="inlineStr">
         <is>
-          <t>14/05/2023 01:43</t>
+          <t>15/05/2023 03:42</t>
         </is>
       </c>
       <c r="P169" t="n">
-        <v>3.98</v>
+        <v>4.32</v>
       </c>
       <c r="Q169" t="inlineStr">
         <is>
-          <t>18/05/2023 01:29</t>
+          <t>18/05/2023 01:28</t>
         </is>
       </c>
       <c r="R169" t="n">
-        <v>5.71</v>
+        <v>3.92</v>
       </c>
       <c r="S169" t="inlineStr">
         <is>
-          <t>14/05/2023 01:43</t>
+          <t>15/05/2023 03:42</t>
         </is>
       </c>
       <c r="T169" t="n">
-        <v>5.19</v>
+        <v>4.52</v>
       </c>
       <c r="U169" t="inlineStr">
         <is>
-          <t>18/05/2023 01:29</t>
+          <t>18/05/2023 01:28</t>
         </is>
       </c>
       <c r="V169" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/fc-cincinnati-cf-montreal/OGjlTCxh/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/columbus-crew-los-angeles-galaxy/4GV4qVRd/</t>
         </is>
       </c>
     </row>
@@ -16305,71 +16305,71 @@
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="G173" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Los Angeles Galaxy</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="K173" t="inlineStr">
         <is>
-          <t>15/05/2023 03:42</t>
+          <t>14/05/2023 01:43</t>
         </is>
       </c>
       <c r="L173" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="M173" t="inlineStr">
         <is>
-          <t>18/05/2023 01:28</t>
+          <t>18/05/2023 01:29</t>
         </is>
       </c>
       <c r="N173" t="n">
-        <v>3.85</v>
+        <v>4.38</v>
       </c>
       <c r="O173" t="inlineStr">
         <is>
-          <t>15/05/2023 03:42</t>
+          <t>14/05/2023 01:43</t>
         </is>
       </c>
       <c r="P173" t="n">
-        <v>4.32</v>
+        <v>3.98</v>
       </c>
       <c r="Q173" t="inlineStr">
         <is>
-          <t>18/05/2023 01:28</t>
+          <t>18/05/2023 01:29</t>
         </is>
       </c>
       <c r="R173" t="n">
-        <v>3.92</v>
+        <v>5.71</v>
       </c>
       <c r="S173" t="inlineStr">
         <is>
-          <t>15/05/2023 03:42</t>
+          <t>14/05/2023 01:43</t>
         </is>
       </c>
       <c r="T173" t="n">
-        <v>4.52</v>
+        <v>5.19</v>
       </c>
       <c r="U173" t="inlineStr">
         <is>
-          <t>18/05/2023 01:28</t>
+          <t>18/05/2023 01:29</t>
         </is>
       </c>
       <c r="V173" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/columbus-crew-los-angeles-galaxy/4GV4qVRd/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/fc-cincinnati-cf-montreal/OGjlTCxh/</t>
         </is>
       </c>
     </row>
@@ -38293,22 +38293,22 @@
       </c>
       <c r="F412" t="inlineStr">
         <is>
-          <t>Columbus Crew</t>
+          <t>Charlotte</t>
         </is>
       </c>
       <c r="G412" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H412" t="inlineStr">
         <is>
-          <t>Chicago Fire</t>
+          <t>Philadelphia Union</t>
         </is>
       </c>
       <c r="I412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J412" t="n">
-        <v>1.6</v>
+        <v>2.59</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -38316,15 +38316,15 @@
         </is>
       </c>
       <c r="L412" t="n">
-        <v>1.47</v>
+        <v>2.42</v>
       </c>
       <c r="M412" t="inlineStr">
         <is>
-          <t>21/09/2023 01:23</t>
+          <t>21/09/2023 01:29</t>
         </is>
       </c>
       <c r="N412" t="n">
-        <v>4.56</v>
+        <v>3.48</v>
       </c>
       <c r="O412" t="inlineStr">
         <is>
@@ -38332,15 +38332,15 @@
         </is>
       </c>
       <c r="P412" t="n">
-        <v>5.15</v>
+        <v>3.63</v>
       </c>
       <c r="Q412" t="inlineStr">
         <is>
-          <t>21/09/2023 01:23</t>
+          <t>21/09/2023 01:29</t>
         </is>
       </c>
       <c r="R412" t="n">
-        <v>5.31</v>
+        <v>2.8</v>
       </c>
       <c r="S412" t="inlineStr">
         <is>
@@ -38348,16 +38348,16 @@
         </is>
       </c>
       <c r="T412" t="n">
-        <v>6.39</v>
+        <v>2.95</v>
       </c>
       <c r="U412" t="inlineStr">
         <is>
-          <t>21/09/2023 01:23</t>
+          <t>21/09/2023 01:29</t>
         </is>
       </c>
       <c r="V412" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/columbus-crew-chicago-fire/SdilDkOQ/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/charlotte-fc-philadelphia-union/ALdqEV8K/</t>
         </is>
       </c>
     </row>
@@ -38385,22 +38385,22 @@
       </c>
       <c r="F413" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>CF Montreal</t>
         </is>
       </c>
       <c r="G413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H413" t="inlineStr">
         <is>
-          <t>Philadelphia Union</t>
+          <t>FC Cincinnati</t>
         </is>
       </c>
       <c r="I413" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J413" t="n">
-        <v>2.59</v>
+        <v>2.52</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -38408,48 +38408,48 @@
         </is>
       </c>
       <c r="L413" t="n">
-        <v>2.42</v>
+        <v>2.94</v>
       </c>
       <c r="M413" t="inlineStr">
         <is>
+          <t>21/09/2023 01:25</t>
+        </is>
+      </c>
+      <c r="N413" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O413" t="inlineStr">
+        <is>
+          <t>17/09/2023 00:44</t>
+        </is>
+      </c>
+      <c r="P413" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q413" t="inlineStr">
+        <is>
           <t>21/09/2023 01:29</t>
         </is>
       </c>
-      <c r="N413" t="n">
-        <v>3.48</v>
-      </c>
-      <c r="O413" t="inlineStr">
+      <c r="R413" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="S413" t="inlineStr">
         <is>
           <t>17/09/2023 00:44</t>
         </is>
       </c>
-      <c r="P413" t="n">
-        <v>3.63</v>
-      </c>
-      <c r="Q413" t="inlineStr">
+      <c r="T413" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="U413" t="inlineStr">
         <is>
           <t>21/09/2023 01:29</t>
         </is>
       </c>
-      <c r="R413" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="S413" t="inlineStr">
-        <is>
-          <t>17/09/2023 00:44</t>
-        </is>
-      </c>
-      <c r="T413" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="U413" t="inlineStr">
-        <is>
-          <t>21/09/2023 01:29</t>
-        </is>
-      </c>
       <c r="V413" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/charlotte-fc-philadelphia-union/ALdqEV8K/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/cf-montreal-fc-cincinnati/pYscY8DI/</t>
         </is>
       </c>
     </row>
@@ -38477,22 +38477,22 @@
       </c>
       <c r="F414" t="inlineStr">
         <is>
-          <t>CF Montreal</t>
+          <t>Columbus Crew</t>
         </is>
       </c>
       <c r="G414" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H414" t="inlineStr">
         <is>
-          <t>FC Cincinnati</t>
+          <t>Chicago Fire</t>
         </is>
       </c>
       <c r="I414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J414" t="n">
-        <v>2.52</v>
+        <v>1.6</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -38500,15 +38500,15 @@
         </is>
       </c>
       <c r="L414" t="n">
-        <v>2.94</v>
+        <v>1.47</v>
       </c>
       <c r="M414" t="inlineStr">
         <is>
-          <t>21/09/2023 01:25</t>
+          <t>21/09/2023 01:23</t>
         </is>
       </c>
       <c r="N414" t="n">
-        <v>3.56</v>
+        <v>4.56</v>
       </c>
       <c r="O414" t="inlineStr">
         <is>
@@ -38516,15 +38516,15 @@
         </is>
       </c>
       <c r="P414" t="n">
-        <v>3.57</v>
+        <v>5.15</v>
       </c>
       <c r="Q414" t="inlineStr">
         <is>
-          <t>21/09/2023 01:29</t>
+          <t>21/09/2023 01:23</t>
         </is>
       </c>
       <c r="R414" t="n">
-        <v>2.78</v>
+        <v>5.31</v>
       </c>
       <c r="S414" t="inlineStr">
         <is>
@@ -38532,16 +38532,16 @@
         </is>
       </c>
       <c r="T414" t="n">
-        <v>2.46</v>
+        <v>6.39</v>
       </c>
       <c r="U414" t="inlineStr">
         <is>
-          <t>21/09/2023 01:29</t>
+          <t>21/09/2023 01:23</t>
         </is>
       </c>
       <c r="V414" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/usa/mls/cf-montreal-fc-cincinnati/pYscY8DI/</t>
+          <t>https://www.betexplorer.com/football/usa/mls/columbus-crew-chicago-fire/SdilDkOQ/</t>
         </is>
       </c>
     </row>
@@ -40290,6 +40290,190 @@
       <c r="V433" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/usa/mls/new-york-city-toronto-fc/0MBBiWDt/</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>mls</t>
+        </is>
+      </c>
+      <c r="D434" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E434" s="2" t="n">
+        <v>45194.0625</v>
+      </c>
+      <c r="F434" t="inlineStr">
+        <is>
+          <t>Orlando City</t>
+        </is>
+      </c>
+      <c r="G434" t="n">
+        <v>1</v>
+      </c>
+      <c r="H434" t="inlineStr">
+        <is>
+          <t>Inter Miami</t>
+        </is>
+      </c>
+      <c r="I434" t="n">
+        <v>1</v>
+      </c>
+      <c r="J434" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:48</t>
+        </is>
+      </c>
+      <c r="L434" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="M434" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:28</t>
+        </is>
+      </c>
+      <c r="N434" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O434" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:48</t>
+        </is>
+      </c>
+      <c r="P434" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="Q434" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:29</t>
+        </is>
+      </c>
+      <c r="R434" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="S434" t="inlineStr">
+        <is>
+          <t>21/09/2023 08:48</t>
+        </is>
+      </c>
+      <c r="T434" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="U434" t="inlineStr">
+        <is>
+          <t>25/09/2023 01:29</t>
+        </is>
+      </c>
+      <c r="V434" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/usa/mls/orlando-city-inter-miami/Yw0V68Ii/</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>usa</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>mls</t>
+        </is>
+      </c>
+      <c r="D435" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E435" s="2" t="n">
+        <v>45194.14583333334</v>
+      </c>
+      <c r="F435" t="inlineStr">
+        <is>
+          <t>Austin FC</t>
+        </is>
+      </c>
+      <c r="G435" t="n">
+        <v>3</v>
+      </c>
+      <c r="H435" t="inlineStr">
+        <is>
+          <t>Los Angeles Galaxy</t>
+        </is>
+      </c>
+      <c r="I435" t="n">
+        <v>3</v>
+      </c>
+      <c r="J435" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="L435" t="n">
+        <v>2</v>
+      </c>
+      <c r="M435" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:59</t>
+        </is>
+      </c>
+      <c r="N435" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="O435" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="P435" t="n">
+        <v>4.24</v>
+      </c>
+      <c r="Q435" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:59</t>
+        </is>
+      </c>
+      <c r="R435" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="S435" t="inlineStr">
+        <is>
+          <t>21/09/2023 03:43</t>
+        </is>
+      </c>
+      <c r="T435" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="U435" t="inlineStr">
+        <is>
+          <t>25/09/2023 02:54</t>
+        </is>
+      </c>
+      <c r="V435" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/usa/mls/austin-fc-los-angeles-galaxy/G2kz6SXc/</t>
         </is>
       </c>
     </row>
